--- a/测试结果.xlsx
+++ b/测试结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\unnamed\fudan\prml_qiuxipeng\hw\pj\prml2020_pj\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401D9C92-5056-48BA-964C-8FA19EF0913F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5EB79B-EEBE-49B1-BF06-AF7283902176}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="1860" windowWidth="17832" windowHeight="9528" xr2:uid="{A05DC611-797E-43E4-9765-012AC38A4A6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A05DC611-797E-43E4-9765-012AC38A4A6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>roc</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,10 +42,6 @@
   </si>
   <si>
     <t>以0.5为界截断为0/1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>random forest两种测试方法在dev集和test集上的区别不大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,6 +74,13 @@
     <t>fingerprint+sigmoid线性层</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>random forest两种测试方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在dev集和test集上的区别不大</t>
+  </si>
 </sst>
 </file>
 
@@ -100,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -122,8 +131,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -440,21 +452,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A09CD689-2FE8-4FCF-947A-090E731CD4D3}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" customWidth="1"/>
+    <col min="5" max="5" width="3.33203125" customWidth="1"/>
+    <col min="10" max="10" width="3.6640625" customWidth="1"/>
+    <col min="15" max="15" width="3.6640625" customWidth="1"/>
+    <col min="20" max="20" width="3.109375" customWidth="1"/>
+    <col min="22" max="22" width="13.21875" customWidth="1"/>
+    <col min="23" max="23" width="9.77734375" customWidth="1"/>
+    <col min="25" max="25" width="3.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -462,8 +481,9 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="1"/>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -471,44 +491,48 @@
       <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" t="s">
-        <v>5</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" t="s">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="1"/>
       <c r="P1" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" t="s">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="1"/>
       <c r="U1" t="s">
-        <v>1</v>
-      </c>
-      <c r="X1" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>0</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="V1" t="s">
+        <v>0</v>
+      </c>
+      <c r="W1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y1" s="1"/>
       <c r="Z1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -518,6 +542,7 @@
       <c r="C2">
         <v>0.11</v>
       </c>
+      <c r="E2" s="1"/>
       <c r="F2">
         <v>0</v>
       </c>
@@ -527,44 +552,48 @@
       <c r="H2">
         <v>0.23</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
+      <c r="J2" s="1"/>
       <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.91</v>
+      </c>
+      <c r="M2">
+        <v>0.43</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
         <v>0.7</v>
       </c>
-      <c r="L2">
+      <c r="R2">
         <v>0.54</v>
       </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0.91</v>
-      </c>
-      <c r="P2">
-        <v>0.43</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
+      <c r="T2" s="1"/>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.97</v>
+      </c>
+      <c r="W2">
+        <v>0.68</v>
+      </c>
+      <c r="Y2" s="1"/>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
         <v>0.69</v>
       </c>
-      <c r="U2">
+      <c r="AB2">
         <v>0.54</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0.97</v>
-      </c>
-      <c r="Z2">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -574,6 +603,7 @@
       <c r="C3">
         <v>0.53</v>
       </c>
+      <c r="E3" s="1"/>
       <c r="F3">
         <v>1</v>
       </c>
@@ -583,44 +613,48 @@
       <c r="H3">
         <v>0.77</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
+      <c r="J3" s="1"/>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.93</v>
+      </c>
+      <c r="M3">
+        <v>0.8</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
         <v>0.75</v>
       </c>
-      <c r="L3">
+      <c r="R3">
         <v>0.77</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0.93</v>
-      </c>
-      <c r="P3">
-        <v>0.8</v>
-      </c>
-      <c r="S3">
-        <v>1</v>
-      </c>
-      <c r="T3">
+      <c r="T3" s="1"/>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>0.84</v>
+      </c>
+      <c r="W3">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Y3" s="1"/>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
         <v>0.75</v>
       </c>
-      <c r="U3">
+      <c r="AB3">
         <v>0.77</v>
       </c>
-      <c r="X3">
-        <v>1</v>
-      </c>
-      <c r="Y3">
-        <v>0.84</v>
-      </c>
-      <c r="Z3">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -630,6 +664,7 @@
       <c r="C4">
         <v>0.55000000000000004</v>
       </c>
+      <c r="E4" s="1"/>
       <c r="F4">
         <v>2</v>
       </c>
@@ -639,44 +674,48 @@
       <c r="H4">
         <v>0.59</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="1"/>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4">
+      <c r="L4">
+        <v>0.7</v>
+      </c>
+      <c r="M4">
+        <v>0.51</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4">
+        <v>2</v>
+      </c>
+      <c r="Q4">
         <v>0.75</v>
       </c>
-      <c r="L4">
+      <c r="R4">
         <v>0.75</v>
       </c>
-      <c r="N4">
+      <c r="T4" s="1"/>
+      <c r="U4">
         <v>2</v>
       </c>
-      <c r="O4">
-        <v>0.7</v>
-      </c>
-      <c r="P4">
+      <c r="V4">
+        <v>0.76</v>
+      </c>
+      <c r="W4">
         <v>0.51</v>
       </c>
-      <c r="S4">
+      <c r="Y4" s="1"/>
+      <c r="Z4">
         <v>2</v>
       </c>
-      <c r="T4">
+      <c r="AA4">
         <v>0.75</v>
       </c>
-      <c r="U4">
+      <c r="AB4">
         <v>0.75</v>
       </c>
-      <c r="X4">
-        <v>2</v>
-      </c>
-      <c r="Y4">
-        <v>0.76</v>
-      </c>
-      <c r="Z4">
-        <v>0.51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -686,6 +725,7 @@
       <c r="C5">
         <v>0.03</v>
       </c>
+      <c r="E5" s="1"/>
       <c r="F5">
         <v>3</v>
       </c>
@@ -695,44 +735,48 @@
       <c r="H5">
         <v>0.51</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1"/>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="L5">
+        <v>0.64</v>
+      </c>
+      <c r="M5">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
         <v>0.5</v>
       </c>
-      <c r="L5">
+      <c r="R5">
         <v>0.51</v>
       </c>
-      <c r="N5">
+      <c r="T5" s="1"/>
+      <c r="U5">
         <v>3</v>
       </c>
-      <c r="O5">
-        <v>0.64</v>
-      </c>
-      <c r="P5">
-        <v>0.1</v>
-      </c>
-      <c r="S5">
+      <c r="V5">
+        <v>0.65</v>
+      </c>
+      <c r="W5">
+        <v>0.27</v>
+      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5">
         <v>3</v>
       </c>
-      <c r="T5">
+      <c r="AA5">
         <v>0.5</v>
       </c>
-      <c r="U5">
+      <c r="AB5">
         <v>0.51</v>
       </c>
-      <c r="X5">
-        <v>3</v>
-      </c>
-      <c r="Y5">
-        <v>0.65</v>
-      </c>
-      <c r="Z5">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -742,6 +786,7 @@
       <c r="C6">
         <v>0.84</v>
       </c>
+      <c r="E6" s="1"/>
       <c r="F6">
         <v>4</v>
       </c>
@@ -751,44 +796,48 @@
       <c r="H6">
         <v>0.78</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1"/>
+      <c r="K6">
         <v>4</v>
       </c>
-      <c r="K6">
+      <c r="L6">
+        <v>0.98</v>
+      </c>
+      <c r="M6">
+        <v>0.86</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6">
+        <v>4</v>
+      </c>
+      <c r="Q6">
         <v>0.92</v>
       </c>
-      <c r="L6">
+      <c r="R6">
         <v>0.92</v>
       </c>
-      <c r="N6">
+      <c r="T6" s="1"/>
+      <c r="U6">
         <v>4</v>
       </c>
-      <c r="O6">
-        <v>0.98</v>
-      </c>
-      <c r="P6">
-        <v>0.86</v>
-      </c>
-      <c r="S6">
+      <c r="V6">
+        <v>0.96</v>
+      </c>
+      <c r="W6">
+        <v>0.85</v>
+      </c>
+      <c r="Y6" s="1"/>
+      <c r="Z6">
         <v>4</v>
       </c>
-      <c r="T6">
+      <c r="AA6">
         <v>0.91</v>
       </c>
-      <c r="U6">
+      <c r="AB6">
         <v>0.84</v>
       </c>
-      <c r="X6">
-        <v>4</v>
-      </c>
-      <c r="Y6">
-        <v>0.96</v>
-      </c>
-      <c r="Z6">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -798,6 +847,7 @@
       <c r="C7">
         <v>0.36</v>
       </c>
+      <c r="E7" s="1"/>
       <c r="F7">
         <v>5</v>
       </c>
@@ -807,44 +857,48 @@
       <c r="H7">
         <v>0.34</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1"/>
+      <c r="K7">
         <v>5</v>
       </c>
-      <c r="K7">
+      <c r="L7">
+        <v>0.72</v>
+      </c>
+      <c r="M7">
+        <v>0.35</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7">
+        <v>5</v>
+      </c>
+      <c r="Q7">
         <v>0.67</v>
       </c>
-      <c r="L7">
+      <c r="R7">
         <v>0.67</v>
       </c>
-      <c r="N7">
+      <c r="T7" s="1"/>
+      <c r="U7">
         <v>5</v>
       </c>
-      <c r="O7">
-        <v>0.72</v>
-      </c>
-      <c r="P7">
-        <v>0.35</v>
-      </c>
-      <c r="S7">
+      <c r="V7">
+        <v>0.74</v>
+      </c>
+      <c r="W7">
+        <v>0.41</v>
+      </c>
+      <c r="Y7" s="1"/>
+      <c r="Z7">
         <v>5</v>
       </c>
-      <c r="T7">
+      <c r="AA7">
         <v>0.67</v>
       </c>
-      <c r="U7">
+      <c r="AB7">
         <v>0.67</v>
       </c>
-      <c r="X7">
-        <v>5</v>
-      </c>
-      <c r="Y7">
-        <v>0.74</v>
-      </c>
-      <c r="Z7">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -854,6 +908,7 @@
       <c r="C8">
         <v>0.03</v>
       </c>
+      <c r="E8" s="1"/>
       <c r="F8">
         <v>6</v>
       </c>
@@ -863,44 +918,48 @@
       <c r="H8">
         <v>0.01</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="1"/>
+      <c r="K8">
         <v>6</v>
       </c>
-      <c r="K8">
+      <c r="L8">
+        <v>0.73</v>
+      </c>
+      <c r="M8">
+        <v>0.05</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8">
+        <v>6</v>
+      </c>
+      <c r="Q8">
         <v>0.5</v>
       </c>
-      <c r="L8">
+      <c r="R8">
         <v>0.51</v>
       </c>
-      <c r="N8">
+      <c r="T8" s="1"/>
+      <c r="U8">
         <v>6</v>
       </c>
-      <c r="O8">
-        <v>0.73</v>
-      </c>
-      <c r="P8">
-        <v>0.05</v>
-      </c>
-      <c r="S8">
+      <c r="V8">
+        <v>0.65</v>
+      </c>
+      <c r="W8">
+        <v>0.06</v>
+      </c>
+      <c r="Y8" s="1"/>
+      <c r="Z8">
         <v>6</v>
       </c>
-      <c r="T8">
+      <c r="AA8">
         <v>0.5</v>
       </c>
-      <c r="U8">
+      <c r="AB8">
         <v>0.51</v>
       </c>
-      <c r="X8">
-        <v>6</v>
-      </c>
-      <c r="Y8">
-        <v>0.65</v>
-      </c>
-      <c r="Z8">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -910,6 +969,7 @@
       <c r="C9">
         <v>0</v>
       </c>
+      <c r="E9" s="1"/>
       <c r="F9">
         <v>7</v>
       </c>
@@ -919,44 +979,48 @@
       <c r="H9">
         <v>0</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="1"/>
+      <c r="K9">
         <v>7</v>
       </c>
-      <c r="K9">
+      <c r="L9">
+        <v>0.22</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1"/>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
         <v>0.5</v>
       </c>
-      <c r="L9">
+      <c r="R9">
         <v>0.5</v>
       </c>
-      <c r="N9">
+      <c r="T9" s="1"/>
+      <c r="U9">
         <v>7</v>
       </c>
-      <c r="O9">
-        <v>0.22</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="S9">
+      <c r="V9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W9">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y9" s="1"/>
+      <c r="Z9">
         <v>7</v>
       </c>
-      <c r="T9">
+      <c r="AA9">
         <v>0.5</v>
       </c>
-      <c r="U9">
+      <c r="AB9">
         <v>0.5</v>
       </c>
-      <c r="X9">
-        <v>7</v>
-      </c>
-      <c r="Y9">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Z9">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -966,6 +1030,7 @@
       <c r="C10">
         <v>0.88</v>
       </c>
+      <c r="E10" s="1"/>
       <c r="F10">
         <v>8</v>
       </c>
@@ -975,44 +1040,48 @@
       <c r="H10">
         <v>0.75</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1"/>
+      <c r="K10">
         <v>8</v>
       </c>
-      <c r="K10">
+      <c r="L10">
+        <v>0.99</v>
+      </c>
+      <c r="M10">
+        <v>0.84</v>
+      </c>
+      <c r="O10" s="1"/>
+      <c r="P10">
+        <v>8</v>
+      </c>
+      <c r="Q10">
         <v>0.87</v>
       </c>
-      <c r="L10">
+      <c r="R10">
         <v>0.75</v>
       </c>
-      <c r="N10">
+      <c r="T10" s="1"/>
+      <c r="U10">
         <v>8</v>
       </c>
-      <c r="O10">
-        <v>0.99</v>
-      </c>
-      <c r="P10">
-        <v>0.84</v>
-      </c>
-      <c r="S10">
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10">
+        <v>0.94</v>
+      </c>
+      <c r="Y10" s="1"/>
+      <c r="Z10">
         <v>8</v>
       </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
         <v>0.94</v>
       </c>
-      <c r="X10">
-        <v>8</v>
-      </c>
-      <c r="Y10">
-        <v>1</v>
-      </c>
-      <c r="Z10">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1022,6 +1091,7 @@
       <c r="C11">
         <v>0.38</v>
       </c>
+      <c r="E11" s="1"/>
       <c r="F11">
         <v>9</v>
       </c>
@@ -1031,46 +1101,50 @@
       <c r="H11">
         <v>0.42</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="1"/>
+      <c r="K11">
         <v>9</v>
       </c>
-      <c r="K11">
+      <c r="L11">
+        <v>0.87</v>
+      </c>
+      <c r="M11">
+        <v>0.3</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11">
+        <v>9</v>
+      </c>
+      <c r="Q11">
         <v>0.5</v>
       </c>
-      <c r="L11">
+      <c r="R11">
         <v>0.51</v>
       </c>
-      <c r="N11">
+      <c r="T11" s="1"/>
+      <c r="U11">
         <v>9</v>
       </c>
-      <c r="O11">
-        <v>0.87</v>
-      </c>
-      <c r="P11">
-        <v>0.3</v>
-      </c>
-      <c r="S11">
+      <c r="V11">
+        <v>0.95</v>
+      </c>
+      <c r="W11">
+        <v>0.41</v>
+      </c>
+      <c r="Y11" s="1"/>
+      <c r="Z11">
         <v>9</v>
       </c>
-      <c r="T11">
+      <c r="AA11">
         <v>0.95</v>
       </c>
-      <c r="U11">
+      <c r="AB11">
         <v>0.41</v>
       </c>
-      <c r="X11">
-        <v>9</v>
-      </c>
-      <c r="Y11">
-        <v>0.95</v>
-      </c>
-      <c r="Z11">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11)</f>
@@ -1080,8 +1154,9 @@
         <f>AVERAGE(C2,C3,C4,C5,C6,C7,C8,C9,C10,C11)</f>
         <v>0.37099999999999994</v>
       </c>
+      <c r="E12" s="1"/>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G12">
         <f>AVERAGE(G2,G3,G4,G5,G6,G7,G8,G9,G10,G11)</f>
@@ -1091,100 +1166,148 @@
         <f>AVERAGE(H2,H3,H4,H5,H6,H7,H8,H9,H10,H11)</f>
         <v>0.43999999999999995</v>
       </c>
-      <c r="J12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12">
-        <f>AVERAGE(K2,K3,K4,K5,K6,K7,K8,K9,K10,K11)</f>
-        <v>0.66600000000000004</v>
+      <c r="J12" s="1"/>
+      <c r="K12" t="s">
+        <v>3</v>
       </c>
       <c r="L12">
         <f>AVERAGE(L2,L3,L4,L5,L6,L7,L8,L9,L10,L11)</f>
+        <v>0.76899999999999991</v>
+      </c>
+      <c r="M12">
+        <f>AVERAGE(M2,M3,M4,M5,M6,M7,M8,M9,M10,M11)</f>
+        <v>0.42400000000000004</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <f>AVERAGE(Q2,Q3,Q4,Q5,Q6,Q7,Q8,Q9,Q10,Q11)</f>
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="R12">
+        <f>AVERAGE(R2,R3,R4,R5,R6,R7,R8,R9,R10,R11)</f>
         <v>0.64300000000000002</v>
       </c>
-      <c r="N12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12">
-        <f>AVERAGE(O2,O3,O4,O5,O6,O7,O8,O9,O10,O11)</f>
-        <v>0.76899999999999991</v>
-      </c>
-      <c r="P12">
-        <f>AVERAGE(P2,P3,P4,P5,P6,P7,P8,P9,P10,P11)</f>
-        <v>0.42400000000000004</v>
-      </c>
-      <c r="S12" t="s">
-        <v>4</v>
-      </c>
-      <c r="T12">
-        <f>AVERAGE(T2,T3,T4,T5,T6,T7,T8,T9,T10,T11)</f>
+      <c r="T12" s="1"/>
+      <c r="U12" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12">
+        <f>AVERAGE(V2,V3,V4,V5,V6,V7,V8,V9,V10,V11)</f>
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="W12">
+        <f>AVERAGE(W2,W3,W4,W5,W6,W7,W8,W9,W10,W11)</f>
+        <v>0.47149999999999997</v>
+      </c>
+      <c r="Y12" s="1"/>
+      <c r="Z12" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA12">
+        <f>AVERAGE(AA2,AA3,AA4,AA5,AA6,AA7,AA8,AA9,AA10,AA11)</f>
         <v>0.72200000000000009</v>
       </c>
-      <c r="U12">
-        <f>AVERAGE(U2,U3,U4,U5,U6,U7,U8,U9,U10,U11)</f>
+      <c r="AB12">
+        <f>AVERAGE(AB2,AB3,AB4,AB5,AB6,AB7,AB8,AB9,AB10,AB11)</f>
         <v>0.64399999999999991</v>
       </c>
-      <c r="X12" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y12">
-        <f>AVERAGE(Y2,Y3,Y4,Y5,Y6,Y7,Y8,Y9,Y10,Y11)</f>
-        <v>0.80700000000000005</v>
-      </c>
-      <c r="Z12">
-        <f>AVERAGE(Z2,Z3,Z4,Z5,Z6,Z7,Z8,Z9,Z10,Z11)</f>
-        <v>0.47149999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E13" s="1"/>
       <c r="G13" t="s">
-        <v>11</v>
-      </c>
-      <c r="K13" t="s">
-        <v>6</v>
-      </c>
-      <c r="O13" t="s">
-        <v>6</v>
-      </c>
-      <c r="T13" t="s">
-        <v>9</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="L13" t="s">
+        <v>5</v>
+      </c>
+      <c r="O13" s="1"/>
+      <c r="Q13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y13" s="1"/>
+      <c r="AA13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
       <c r="G14" t="s">
         <v>2</v>
       </c>
-      <c r="K14" t="s">
+      <c r="J14" s="1"/>
+      <c r="L14" t="s">
         <v>7</v>
       </c>
-      <c r="O14" t="s">
-        <v>8</v>
-      </c>
-      <c r="T14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="T15" t="s">
+      <c r="O14" s="1"/>
+      <c r="Q14" t="s">
+        <v>6</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="V14" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y14" s="1"/>
+      <c r="AA14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="V15" t="s">
         <v>7</v>
       </c>
-      <c r="Y15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="21:21" x14ac:dyDescent="0.25">
-      <c r="U17" t="s">
-        <v>3</v>
-      </c>
+      <c r="Y15" s="1"/>
+      <c r="AA15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="Y16" s="1"/>
+    </row>
+    <row r="17" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="V17" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="V18" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="5:25" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="Y19" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
